--- a/medicine/Enfance/Marion_Raynaud_de_Prigny/Marion_Raynaud_de_Prigny.xlsx
+++ b/medicine/Enfance/Marion_Raynaud_de_Prigny/Marion_Raynaud_de_Prigny.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Marion Raynaud de Prigny, née dans une petite ville du Béarn le 27 juillet 1968 est illustratrice et auteur de livres pour enfants.
 </t>
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Sœur de 4 frères, elle est la fille d'un père commandant de sous-marin et d'une mère peintre. De ports en ports, elle finit par accoster à Paris, où elle fait ses études aux Arts Décoratifs et rencontre son mari Philippe Raynaud, médecin psychiatre de haut niveau[réf. nécessaire]. Après avoir fini ses études, elle resta encore quelques années dans la capitale avant de déménager à Perpignan. Elle exerce le métier d'auteur/illustrateur de livres pour enfants aux Éditions du Triomphe[1]. Avant de se lancer dans l'écriture, Marion Raynaud de Prigny a illustré beaucoup de livres pour adolescents et pour adultes. Actuellement, elle travaille sur une série de sa création, Paul et Colombe[2], et elle en est au 12e tome en 2010.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sœur de 4 frères, elle est la fille d'un père commandant de sous-marin et d'une mère peintre. De ports en ports, elle finit par accoster à Paris, où elle fait ses études aux Arts Décoratifs et rencontre son mari Philippe Raynaud, médecin psychiatre de haut niveau[réf. nécessaire]. Après avoir fini ses études, elle resta encore quelques années dans la capitale avant de déménager à Perpignan. Elle exerce le métier d'auteur/illustrateur de livres pour enfants aux Éditions du Triomphe. Avant de se lancer dans l'écriture, Marion Raynaud de Prigny a illustré beaucoup de livres pour adolescents et pour adultes. Actuellement, elle travaille sur une série de sa création, Paul et Colombe, et elle en est au 12e tome en 2010.
 </t>
         </is>
       </c>
